--- a/result.xlsx
+++ b/result.xlsx
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1058.376068376068</v>
+        <v>-1058.376</v>
       </c>
     </row>
   </sheetData>
